--- a/biology/Origine et évolution du vivant/Apicomplexa_(classification_phylogénétique)/Apicomplexa_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Apicomplexa_(classification_phylogénétique)/Apicomplexa_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Apicomplexa (Sporozoa, Sporozoaires, Apicomplexés), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -646,7 +660,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -664,11 +678,48 @@
           <t>Débat scientifique relatif à la phylogénie des Apicomplexa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition entre Coccidies et Grégarines pourrait s'atténuer : les Cryptosporidies, qui étaient classées parmi les premières, semblent bien être le groupe-frère des secondes, si tant est que la distinction des deux groupes doive être maintenue. De futures analyses phylogénétiques le diront.
-Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Apicomplexa. C'est manifestement une classification considérée comme transitoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Apicomplexa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Apicomplexa. C'est manifestement une classification considérée comme transitoire.
 Classification proposée par Adl et al. 2005
 ▲
 Apicomplexa
@@ -683,41 +734,110 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Sources bibliographiques de référence
-Robert B. Moore, Miroslav Oborník, Jan Janouškovec, Tomáš Chrudimský, Marie Vancová, David H. Green, Simon W. Wright, Noel W. Davies, Christopher J.S. Bolch, Kirsten Heimann, Jan Šlapeta, Ove Hoegh-Guldberg, John M. Logsdon Jr. et Dee A. Carter (2008) « A photosynthetic alveolate closely related to apicomplexan parasites », Nature 451, pp. 959-963 et 452 p. 900
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert B. Moore, Miroslav Oborník, Jan Janouškovec, Tomáš Chrudimský, Marie Vancová, David H. Green, Simon W. Wright, Noel W. Davies, Christopher J.S. Bolch, Kirsten Heimann, Jan Šlapeta, Ove Hoegh-Guldberg, John M. Logsdon Jr. et Dee A. Carter (2008) « A photosynthetic alveolate closely related to apicomplexan parasites », Nature 451, pp. 959-963 et 452 p. 900
 Brian S. Leander, Shane A.J. Lloyd, Wyth Marshall et Stephen C. Landers (2006) « Phylogeny of Marine Gregarines (Apicomplexa) — Pterospora, Lithocystis and Lankesteria — and the Origin(s) of Coelomic Parasitism », Protist, 157, pp. 45-60
-Sina M. Adl et al. (2005) « The New Higher Level Classification of Eukaryotes », J. Eukaryot. Microbiol., 52 (5), p. 399–451 
-Autres sources bibliographiques
-Sources internet
-Liens internes
-Apicomplexa - Sporozoa
+Sina M. Adl et al. (2005) « The New Higher Level Classification of Eukaryotes », J. Eukaryot. Microbiol., 52 (5), p. 399–451 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Apicomplexa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apicomplexa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apicomplexa - Sporozoa
 Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
